--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H2">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.236856149128538</v>
+        <v>0.2521135</v>
       </c>
       <c r="N2">
-        <v>0.236856149128538</v>
+        <v>0.504227</v>
       </c>
       <c r="O2">
-        <v>0.06046388451572451</v>
+        <v>0.05590272485875765</v>
       </c>
       <c r="P2">
-        <v>0.06046388451572451</v>
+        <v>0.0405525532384611</v>
       </c>
       <c r="Q2">
-        <v>0.1716438639317324</v>
+        <v>0.05389976535416667</v>
       </c>
       <c r="R2">
-        <v>0.1716438639317324</v>
+        <v>0.323398592125</v>
       </c>
       <c r="S2">
-        <v>0.06046388451572451</v>
+        <v>0.01051106221258746</v>
       </c>
       <c r="T2">
-        <v>0.06046388451572451</v>
+        <v>0.007624859271988671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H3">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.432514294657379</v>
+        <v>0.5416043333333334</v>
       </c>
       <c r="N3">
-        <v>0.432514294657379</v>
+        <v>1.624813</v>
       </c>
       <c r="O3">
-        <v>0.1104108736876061</v>
+        <v>0.1200933628252521</v>
       </c>
       <c r="P3">
-        <v>0.1104108736876061</v>
+        <v>0.1306758973340255</v>
       </c>
       <c r="Q3">
-        <v>0.3134325412865359</v>
+        <v>0.1157904930972222</v>
       </c>
       <c r="R3">
-        <v>0.3134325412865359</v>
+        <v>1.042114437875</v>
       </c>
       <c r="S3">
-        <v>0.1104108736876061</v>
+        <v>0.0225804522259761</v>
       </c>
       <c r="T3">
-        <v>0.1104108736876061</v>
+        <v>0.02457022426069554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H4">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7467760077987809</v>
+        <v>1.132338333333333</v>
       </c>
       <c r="N4">
-        <v>0.7467760077987809</v>
+        <v>3.397015</v>
       </c>
       <c r="O4">
-        <v>0.1906346044246269</v>
+        <v>0.2510805581428902</v>
       </c>
       <c r="P4">
-        <v>0.1906346044246269</v>
+        <v>0.2732055832776724</v>
       </c>
       <c r="Q4">
-        <v>0.5411703261313066</v>
+        <v>0.2420844995138889</v>
       </c>
       <c r="R4">
-        <v>0.5411703261313066</v>
+        <v>2.178760495625</v>
       </c>
       <c r="S4">
-        <v>0.1906346044246269</v>
+        <v>0.04720920802481528</v>
       </c>
       <c r="T4">
-        <v>0.1906346044246269</v>
+        <v>0.05136924702531716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H5">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3780195074362</v>
+        <v>1.434601</v>
       </c>
       <c r="N5">
-        <v>1.3780195074362</v>
+        <v>4.303803</v>
       </c>
       <c r="O5">
-        <v>0.3517764375744424</v>
+        <v>0.318103175693085</v>
       </c>
       <c r="P5">
-        <v>0.3517764375744424</v>
+        <v>0.3461341821944255</v>
       </c>
       <c r="Q5">
-        <v>0.9986170665186817</v>
+        <v>0.3067057387916667</v>
       </c>
       <c r="R5">
-        <v>0.9986170665186817</v>
+        <v>2.760351649125</v>
       </c>
       <c r="S5">
-        <v>0.3517764375744424</v>
+        <v>0.05981107858658972</v>
       </c>
       <c r="T5">
-        <v>0.3517764375744424</v>
+        <v>0.06508158470165751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H6">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.291358241181859</v>
+        <v>0.30565</v>
       </c>
       <c r="N6">
-        <v>0.291358241181859</v>
+        <v>0.9169499999999999</v>
       </c>
       <c r="O6">
-        <v>0.07437700525125172</v>
+        <v>0.06777371244728772</v>
       </c>
       <c r="P6">
-        <v>0.07437700525125172</v>
+        <v>0.07374587971688724</v>
       </c>
       <c r="Q6">
-        <v>0.2111401983389856</v>
+        <v>0.06534542291666667</v>
       </c>
       <c r="R6">
-        <v>0.2111401983389856</v>
+        <v>0.5881088062499999</v>
       </c>
       <c r="S6">
-        <v>0.07437700525125172</v>
+        <v>0.01274309453986937</v>
       </c>
       <c r="T6">
-        <v>0.07437700525125172</v>
+        <v>0.01386600620246439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.724675566006032</v>
+        <v>0.2137916666666667</v>
       </c>
       <c r="H7">
-        <v>0.724675566006032</v>
+        <v>0.641375</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.1880241480025247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.831791913798157</v>
+        <v>0.8435535000000001</v>
       </c>
       <c r="N7">
-        <v>0.831791913798157</v>
+        <v>1.687107</v>
       </c>
       <c r="O7">
-        <v>0.2123371945463483</v>
+        <v>0.1870464660327274</v>
       </c>
       <c r="P7">
-        <v>0.2123371945463483</v>
+        <v>0.1356859042385283</v>
       </c>
       <c r="Q7">
-        <v>0.60277927593092</v>
+        <v>0.1803447086875</v>
       </c>
       <c r="R7">
-        <v>0.60277927593092</v>
+        <v>1.082068252125</v>
       </c>
       <c r="S7">
-        <v>0.2123371945463483</v>
+        <v>0.03516925241268674</v>
       </c>
       <c r="T7">
-        <v>0.2123371945463483</v>
+        <v>0.02551222654040143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.769756</v>
+      </c>
+      <c r="I8">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J8">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2521135</v>
+      </c>
+      <c r="N8">
+        <v>0.504227</v>
+      </c>
+      <c r="O8">
+        <v>0.05590272485875765</v>
+      </c>
+      <c r="P8">
+        <v>0.0405525532384611</v>
+      </c>
+      <c r="Q8">
+        <v>0.232764293102</v>
+      </c>
+      <c r="R8">
+        <v>1.396585758612</v>
+      </c>
+      <c r="S8">
+        <v>0.04539166264617019</v>
+      </c>
+      <c r="T8">
+        <v>0.03292769396647242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.769756</v>
+      </c>
+      <c r="I9">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J9">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5416043333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.624813</v>
+      </c>
+      <c r="O9">
+        <v>0.1200933628252521</v>
+      </c>
+      <c r="P9">
+        <v>0.1306758973340255</v>
+      </c>
+      <c r="Q9">
+        <v>0.5000372839586668</v>
+      </c>
+      <c r="R9">
+        <v>4.500335555628</v>
+      </c>
+      <c r="S9">
+        <v>0.09751291059927601</v>
+      </c>
+      <c r="T9">
+        <v>0.10610567307333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.769756</v>
+      </c>
+      <c r="I10">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J10">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.132338333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.397015</v>
+      </c>
+      <c r="O10">
+        <v>0.2510805581428902</v>
+      </c>
+      <c r="P10">
+        <v>0.2732055832776724</v>
+      </c>
+      <c r="Q10">
+        <v>1.045433630926667</v>
+      </c>
+      <c r="R10">
+        <v>9.408902678339999</v>
+      </c>
+      <c r="S10">
+        <v>0.2038713501180749</v>
+      </c>
+      <c r="T10">
+        <v>0.2218363362523553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.769756</v>
+      </c>
+      <c r="I11">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J11">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.434601</v>
+      </c>
+      <c r="N11">
+        <v>4.303803</v>
+      </c>
+      <c r="O11">
+        <v>0.318103175693085</v>
+      </c>
+      <c r="P11">
+        <v>0.3461341821944255</v>
+      </c>
+      <c r="Q11">
+        <v>1.324498242452</v>
+      </c>
+      <c r="R11">
+        <v>11.920484182068</v>
+      </c>
+      <c r="S11">
+        <v>0.2582920971064953</v>
+      </c>
+      <c r="T11">
+        <v>0.2810525974927681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.769756</v>
+      </c>
+      <c r="I12">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J12">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.30565</v>
+      </c>
+      <c r="N12">
+        <v>0.9169499999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.06777371244728772</v>
+      </c>
+      <c r="P12">
+        <v>0.07374587971688724</v>
+      </c>
+      <c r="Q12">
+        <v>0.2821919738</v>
+      </c>
+      <c r="R12">
+        <v>2.5397277642</v>
+      </c>
+      <c r="S12">
+        <v>0.05503061790741835</v>
+      </c>
+      <c r="T12">
+        <v>0.05987987351442286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9232520000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.769756</v>
+      </c>
+      <c r="I13">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="J13">
+        <v>0.8119758519974754</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8435535000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.687107</v>
+      </c>
+      <c r="O13">
+        <v>0.1870464660327274</v>
+      </c>
+      <c r="P13">
+        <v>0.1356859042385283</v>
+      </c>
+      <c r="Q13">
+        <v>0.7788124559820001</v>
+      </c>
+      <c r="R13">
+        <v>4.672874735892001</v>
+      </c>
+      <c r="S13">
+        <v>0.1518772136200407</v>
+      </c>
+      <c r="T13">
+        <v>0.1101736776981268</v>
       </c>
     </row>
   </sheetData>
